--- a/数据整理/stocks/A股/上证主板/601186-中国铁建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601186-中国铁建.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159951</t>
+          <t>005223</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实中关村A股ETF</t>
+          <t>广发中证基建工程指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100.06</t>
+          <t>25.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1305</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005223</t>
+          <t>005224</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数A</t>
+          <t>广发中证基建工程指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.22</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>8.29</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1656</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005224</t>
+          <t>165525</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数C</t>
+          <t>信诚中证基建工程指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>10.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8875</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>169108</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>东方红均衡优选两年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.05</t>
+          <t>22.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.17</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2353</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.03</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>165525</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信诚中证基建工程指数（LOF）</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>169108</t>
+          <t>159951</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方红均衡优选两年定期开放混合</t>
+          <t>嘉实中关村A股ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23.80</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>100.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159951</t>
+          <t>005223</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实中关村A股ETF</t>
+          <t>广发中证基建工程指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>98.79</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -762,25 +862,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>165525</t>
+          <t>005224</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信诚中证基建工程指数（LOF）</t>
+          <t>广发中证基建工程指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>14.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.84</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1079</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>165525</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>信诚中证基建工程指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>11.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8695</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -818,25 +938,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.99</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2810</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002295</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合A</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>34.41</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008604</t>
+          <t>002295</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合C</t>
+          <t>广发稳安灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>34.41</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2.15</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005223</t>
+          <t>003117</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数A</t>
+          <t>光大保德信吉鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005224</t>
+          <t>003118</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数C</t>
+          <t>光大保德信吉鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003117</t>
+          <t>159951</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>光大保德信吉鑫灵活配置混合A</t>
+          <t>嘉实中关村A股ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20.40</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003118</t>
+          <t>008604</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>光大保德信吉鑫灵活配置混合C</t>
+          <t>广发稳安灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20.40</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>34.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601186-中国铁建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601186-中国铁建.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6170</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005224</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8015</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7608</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6516</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6061</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601186-中国铁建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601186-中国铁建.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1866,4 +1867,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9096</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3298</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9989</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7355</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5944</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3560</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009031</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010373</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得聚兴一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010374</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得聚兴一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009032</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601186-中国铁建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601186-中国铁建.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2645,4 +2646,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601186-中国铁建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601186-中国铁建.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2654,7 +2655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2665,17 +2666,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2685,14 +2706,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.67</v>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2701,14 +2744,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.76</v>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7278</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2717,14 +2782,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5679</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.7</v>
       </c>
     </row>
     <row r="5">
@@ -2733,13 +2820,607 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5455</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4267</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009031</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010257</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘多利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009032</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.78</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601186-中国铁建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601186-中国铁建.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3319,7 +3320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3330,17 +3331,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3350,14 +3371,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.48</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5878</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3366,14 +3409,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.67</v>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4292</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3382,14 +3447,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.76</v>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9775</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3398,14 +3485,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.7</v>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5340</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3414,13 +3523,775 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5161</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4695</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011484</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011485</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.78</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601186-中国铁建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601186-中国铁建.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4174,7 +4175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4185,17 +4186,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4205,14 +4226,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.220000000000001</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5238</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4221,14 +4264,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.48</v>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2089</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4237,14 +4302,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.67</v>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7352</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4253,14 +4340,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.76</v>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6356</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4269,14 +4378,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.7</v>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5077</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -4285,13 +4416,1017 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4739</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2703</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011484</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014938</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>56.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011048</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011485</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011049</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015153</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014939</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>56.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.78</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601186-中国铁建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601186-中国铁建.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>11.47</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>8.220000000000001</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>4.48</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>8.67</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>7.76</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>4.7</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.78</v>
       </c>
     </row>
@@ -600,6 +617,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3667</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6178</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5171</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4804</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4363</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4290</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159635</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159619</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>517090</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011050</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘裕新混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011048</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘恒新混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>517180</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011051</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘裕新混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159719</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015678</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011049</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘恒新混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004360</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>65.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1717,7 +3044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2571,7 +3898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3235,7 +4562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4013,7 +5340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4677,7 +6004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5113,7 +6440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601186-中国铁建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601186-中国铁建.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>10.38</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>11.47</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>8.220000000000001</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>4.48</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>8.67</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>7.76</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>4.7</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.78</v>
       </c>
     </row>
@@ -616,7 +633,2129 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1305</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1656</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8875</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2353</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>100.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5589</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7109</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5666</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5582</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4185</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2001</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159619</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159635</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012088</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红锦和甄选18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012089</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红锦和甄选18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>517090</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011048</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘恒新混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>517180</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159719</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>42.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011049</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘恒新混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>42.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015678</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006140</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发集嘉债券A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006141</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发集嘉债券C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银河量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>70.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>016954</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>70.26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015153</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1926,7 +4065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3044,7 +5183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3898,7 +6037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4562,7 +6701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5340,7 +7479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6004,7 +8143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6438,326 +8577,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005223</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证基建工程指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.1305</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005224</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证基建工程指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1656</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>165525</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信诚中证基建工程指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8875</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>169108</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方红均衡优选两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>23.80</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2353</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>10.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2237</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10.03</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1364</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>159951</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实中关村A股ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>100.06</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>